--- a/output/part2/January Anomaly Fama-Macbeth non-January only.xlsx
+++ b/output/part2/January Anomaly Fama-Macbeth non-January only.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.01463393932095179</v>
+        <v>-0.01557022729411377</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005356262295288307</v>
+        <v>0.005198523968211651</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.732117755664186</v>
+        <v>-2.995124652559812</v>
       </c>
       <c r="E2" t="n">
-        <v>0.006777061853498564</v>
+        <v>0.003029454279560273</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.002564274800673531</v>
+        <v>0.002365891675405352</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001770583278991239</v>
+        <v>0.001719226246508648</v>
       </c>
       <c r="D3" t="n">
-        <v>1.448265569374678</v>
+        <v>1.37613748057298</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1488928996575481</v>
+        <v>0.1700564412384429</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0002236170442563614</v>
+        <v>0.0001603302371187737</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001059370738902584</v>
+        <v>0.001030636915595717</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2110847846222459</v>
+        <v>0.1555642289662228</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8330064074432884</v>
+        <v>0.8765067411375436</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0005502691260392971</v>
+        <v>0.000463769252152888</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001828408288410852</v>
+        <v>0.001756653933332972</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3009552787126992</v>
+        <v>0.2640071805565934</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7637181405005775</v>
+        <v>0.792000000229235</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.203943311476906e-06</v>
+        <v>-0.0002259729788715647</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00114192553894412</v>
+        <v>0.001084616312558328</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.001054309821803383</v>
+        <v>-0.2083437029805989</v>
       </c>
       <c r="E6" t="n">
-        <v>0.999159688620599</v>
+        <v>0.835136579881346</v>
       </c>
     </row>
     <row r="7">
@@ -557,16 +557,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.0001296209274496318</v>
+        <v>0.0001846044095898257</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001430472216466374</v>
+        <v>0.001439147203073009</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.09061408250894108</v>
+        <v>0.1282734727869672</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9278774260506536</v>
+        <v>0.8980395331336228</v>
       </c>
     </row>
   </sheetData>

--- a/output/part2/January Anomaly Fama-Macbeth non-January only.xlsx
+++ b/output/part2/January Anomaly Fama-Macbeth non-January only.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.01557022729411377</v>
+        <v>0.004820460007021427</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005198523968211651</v>
+        <v>0.005155772103443359</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.995124652559812</v>
+        <v>0.9349637474864358</v>
       </c>
       <c r="E2" t="n">
-        <v>0.003029454279560273</v>
+        <v>0.3507428472652561</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.002365891675405352</v>
+        <v>0.00237064663467155</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001719226246508648</v>
+        <v>0.001719951247454276</v>
       </c>
       <c r="D3" t="n">
-        <v>1.37613748057298</v>
+        <v>1.378321994986996</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1700564412384429</v>
+        <v>0.1693821027025575</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0001603302371187737</v>
+        <v>0.0001594448704903333</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001030636915595717</v>
+        <v>0.00103157200305246</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1555642289662228</v>
+        <v>0.154564945557392</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8765067411375436</v>
+        <v>0.8772936700359679</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.000463769252152888</v>
+        <v>0.0004660664280526192</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001756653933332972</v>
+        <v>0.00175688404102878</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2640071805565934</v>
+        <v>0.2652801307135241</v>
       </c>
       <c r="E5" t="n">
-        <v>0.792000000229235</v>
+        <v>0.7910204383992478</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0002259729788715647</v>
+        <v>-0.0002277293209558186</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001084616312558328</v>
+        <v>0.001084869413120115</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.2083437029805989</v>
+        <v>-0.209914039608567</v>
       </c>
       <c r="E6" t="n">
-        <v>0.835136579881346</v>
+        <v>0.8339121136372692</v>
       </c>
     </row>
     <row r="7">
@@ -557,16 +557,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0001846044095898257</v>
+        <v>0.0001989003519217273</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001439147203073009</v>
+        <v>0.001439402758663519</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1282734727869672</v>
+        <v>0.1381825557333276</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8980395331336228</v>
+        <v>0.8902115278159932</v>
       </c>
     </row>
   </sheetData>
